--- a/HT-2/Rummi-BAC-11-Catálogo de atributos y relaciones.xlsx
+++ b/HT-2/Rummi-BAC-11-Catálogo de atributos y relaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca42e1a7130a379e/Uniandes/Quinto Semestre/Arqui Emp/Hojas de trabajo/^N2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{29177F52-E3D4-43EB-9CF1-7EC259C5E081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86FBEA12-7343-47FA-90C4-E0BE20BB05A1}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{29177F52-E3D4-43EB-9CF1-7EC259C5E081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E67BDD21-5E11-4BC5-A9DF-DFBEB033A755}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-11" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Descripción</t>
   </si>
@@ -225,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -259,11 +259,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,6 +345,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -635,396 +691,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="B2:D44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="2" spans="2:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="2:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="23"/>
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+    <row r="12" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="18" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="24"/>
+      <c r="C13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="26"/>
+      <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="2:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" s="27"/>
+      <c r="C16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="17" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="18" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B18" s="28"/>
+      <c r="C18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B19" s="28"/>
+      <c r="C19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+      <c r="C20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+      <c r="C22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B23" s="28"/>
+      <c r="C23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="30"/>
+      <c r="C24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="14" t="s">
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="13" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="26"/>
+      <c r="C26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="10" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="26"/>
+      <c r="C27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B28" s="27"/>
+      <c r="C28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B29" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="13" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="30"/>
+      <c r="C30" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="10" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="C31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B33" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HT-2/Rummi-BAC-11-Catálogo de atributos y relaciones.xlsx
+++ b/HT-2/Rummi-BAC-11-Catálogo de atributos y relaciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca42e1a7130a379e/Uniandes/Quinto Semestre/Arqui Emp/Hojas de trabajo/^N2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{29177F52-E3D4-43EB-9CF1-7EC259C5E081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E67BDD21-5E11-4BC5-A9DF-DFBEB033A755}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41ADDD0-D9D4-4DCB-B4D4-A2C292004F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -350,15 +350,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -369,12 +375,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -694,7 +694,7 @@
   <dimension ref="B2:D44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -741,7 +741,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -749,24 +749,24 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
+    <row r="8" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="26"/>
       <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
@@ -775,7 +775,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
@@ -784,7 +784,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -795,16 +795,16 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -813,14 +813,14 @@
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="2:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="10" t="s">
         <v>23</v>
       </c>
@@ -829,7 +829,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -840,7 +840,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="10" t="s">
         <v>26</v>
       </c>
@@ -849,7 +849,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="10" t="s">
         <v>29</v>
       </c>
@@ -858,14 +858,14 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="16"/>
     </row>
     <row r="21" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -876,7 +876,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="10" t="s">
         <v>32</v>
       </c>
@@ -885,7 +885,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
@@ -894,14 +894,14 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="16"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -912,7 +912,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="26"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="13" t="s">
         <v>47</v>
       </c>
@@ -921,7 +921,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="26"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="10" t="s">
         <v>16</v>
       </c>
@@ -930,7 +930,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -950,7 +950,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="13" t="s">
         <v>14</v>
       </c>
@@ -959,7 +959,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="9" t="s">
         <v>38</v>
       </c>
